--- a/src/testData/testData.xlsx
+++ b/src/testData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/eclipse-workspace/TownSend/src/testData/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -52,12 +52,16 @@
   </si>
   <si>
     <t>Skywalker</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -435,6 +439,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testData/testData.xlsx
+++ b/src/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/eclipse-workspace/TownSend/src/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE65133-F374-864A-A434-F49CC4CA031B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E46EC3-98C4-634B-B185-084EB9069B7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16080" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -42,19 +42,52 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Apache_POI_TC</t>
-  </si>
-  <si>
     <t>Luke</t>
   </si>
   <si>
     <t>Skywalker</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>em@il</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>2019-08-08</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>SobrenomeChanged</t>
+  </si>
+  <si>
+    <t>SobrenomeChangedChanged</t>
   </si>
 </sst>
 </file>
@@ -62,10 +95,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,13 +129,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,15 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71023D7-1429-0E4A-9F47-4F4DE630D065}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,24 +475,93 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{ACF1BE7E-57CF-4149-B3D4-D42504DC4A8B}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{4FD37039-81C8-354D-9717-CEF81EC4A955}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{3922B48B-BC31-D445-8D19-51B1E8F8EC9D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/testData/testData.xlsx
+++ b/src/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/eclipse-workspace/TownSend/src/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E46EC3-98C4-634B-B185-084EB9069B7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7604C309-2C80-F44D-B05B-990B6BB48C26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16080" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16060" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -57,21 +57,9 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>em@il</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -81,13 +69,13 @@
     <t>SignIn</t>
   </si>
   <si>
-    <t>Sobrenome</t>
-  </si>
-  <si>
-    <t>SobrenomeChanged</t>
-  </si>
-  <si>
-    <t>SobrenomeChangedChanged</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>DoeChanged</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71023D7-1429-0E4A-9F47-4F4DE630D065}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -481,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -489,7 +477,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -498,69 +486,21 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{ACF1BE7E-57CF-4149-B3D4-D42504DC4A8B}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{4FD37039-81C8-354D-9717-CEF81EC4A955}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{3922B48B-BC31-D445-8D19-51B1E8F8EC9D}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3922B48B-BC31-D445-8D19-51B1E8F8EC9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/testData/testData.xlsx
+++ b/src/testData/testData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/src/testData/testData.xlsx
+++ b/src/testData/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/eclipse-workspace/TownSend/src/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7B555-888E-9C42-A721-93D79B0EF886}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDEA8F7-53E9-9648-A90F-259A44F8007A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16060" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/testData/testData.xlsx
+++ b/src/testData/testData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Test Case Name</t>
   </si>
